--- a/exercise five/figures/AUC graph.xlsx
+++ b/exercise five/figures/AUC graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar.WJM-SONYLAPTOP\Documents\GitHub\ML_spring_2019\exercise five\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1454127-6125-4883-ADB2-845D1207F5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA3EAC-458F-4C9D-8928-F0EF1BFB30F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="15372" windowHeight="8964" xr2:uid="{43E2C7C9-D03C-44B4-BF7E-352B657DF872}"/>
   </bookViews>
@@ -354,10 +354,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.68</c:v>
@@ -449,7 +449,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
@@ -1552,7 +1552,7 @@
   <dimension ref="C1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,10 +1649,10 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F8">
         <v>0.68</v>
@@ -1681,7 +1681,7 @@
         <v>0.64</v>
       </c>
       <c r="F9">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G9">
         <v>0.6</v>
